--- a/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV3.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,15 +24,27 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -889,7 +901,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -924,12 +936,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -937,12 +943,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1029,12 +1029,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1095,15 +1095,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1211,19 +1207,19 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G39" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1093117408907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2447,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>15</v>
       </c>
@@ -2709,7 +2705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>15</v>
       </c>
@@ -3406,13 +3402,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="H64" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1017" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -20868,26 +20864,25 @@
   <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.331983805668"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21499,22 +21494,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21546,13 +21541,13 @@
       <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="0" t="n">
         <v>80</v>
       </c>
@@ -21578,10 +21573,10 @@
       <c r="F4" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="0" t="n">
         <v>80</v>
       </c>
@@ -21702,7 +21697,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22105,20 +22100,20 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -22169,13 +22164,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>

--- a/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV3.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,24 +27,28 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1207,19 +1211,19 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G39" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.8461538461539"/>
     <col collapsed="false" hidden="false" max="11" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3402,13 +3406,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H64" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1017" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -20864,20 +20868,20 @@
   <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -21494,7 +21498,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -21503,8 +21507,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -21694,15 +21698,17 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22103,7 +22109,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22113,7 +22119,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -22164,13 +22170,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
